--- a/reverseprimer-v3_30.xlsx
+++ b/reverseprimer-v3_30.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_30" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R2785-GTCAGTGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCAGTGTCAGTCTCGTGGGCTCGG</t>
+    <t>R2785-TTGGTAGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGTAGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R2786-AGCTGTAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTGTAGCTGTCTCGTGGGCTCGG</t>
+    <t>R2786-GTCAACAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAACAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R2787-GACAGAGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACAGAGCATGTCTCGTGGGCTCGG</t>
+    <t>R2787-CATGAGGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGAGGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R2788-GGTACTTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTACTTGTCGTCTCGTGGGCTCGG</t>
+    <t>R2788-AGAACACTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACACTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R2789-ACCTCTCGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTCTCGTTGTCTCGTGGGCTCGG</t>
+    <t>R2789-CGAACGAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAACGAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R2790-GTCAACTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCAACTCATGTCTCGTGGGCTCGG</t>
+    <t>R2790-AGAGCAACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGCAACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R2791-TGTACCTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTACCTCCTGTCTCGTGGGCTCGG</t>
+    <t>R2791-CATGCAGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGCAGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R2792-TCATGTGACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATGTGACCGTCTCGTGGGCTCGG</t>
+    <t>R2792-GCTCCTTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTCCTTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R2793-CAGTGAGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTGAGTCTGTCTCGTGGGCTCGG</t>
+    <t>R2793-AGCTACCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTACCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R2794-CATGTTCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGTTCTTGGTCTCGTGGGCTCGG</t>
+    <t>R2794-TTCTTCCTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTTCCTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R2795-GACATCGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACATCGACTGTCTCGTGGGCTCGG</t>
+    <t>R2795-ATCAGCAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAGCAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R2796-GTCTACGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTACGACAGTCTCGTGGGCTCGG</t>
+    <t>R2796-AAGCACAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCACAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R2797-TAGGACATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGACATCCGTCTCGTGGGCTCGG</t>
+    <t>R2797-AAGCAGTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCAGTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R2798-ATCGTCGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGTCGACAGTCTCGTGGGCTCGG</t>
+    <t>R2798-CCAGAGACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCAGAGACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R2799-CATGTCAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGTCAAGAGTCTCGTGGGCTCGG</t>
+    <t>R2799-GAAGATCGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGATCGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R2800-TCTCTGACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCTGACGAGTCTCGTGGGCTCGG</t>
+    <t>R2800-CGTTCGATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTTCGATCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R2801-GCAGTAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAGTAGACTGTCTCGTGGGCTCGG</t>
+    <t>R2801-CCATGCTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCATGCTGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R2802-ACACACACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACACACAGGTCTCGTGGGCTCGG</t>
+    <t>R2802-TCAAGTCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGTCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R2803-ATGACCTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGACCTGACGTCTCGTGGGCTCGG</t>
+    <t>R2803-ATGCAGGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCAGGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R2804-ACATGAGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATGAGTCAGTCTCGTGGGCTCGG</t>
+    <t>R2804-TGGTACCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTACCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R2805-CATGTGACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGTGACAGGTCTCGTGGGCTCGG</t>
+    <t>R2805-GTGCAAGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGCAAGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R2806-AAGGTTCCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGTTCCTTGTCTCGTGGGCTCGG</t>
+    <t>R2806-TACGAAGACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGAAGACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R2807-GGTCGTAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTCGTAGTTGTCTCGTGGGCTCGG</t>
+    <t>R2807-ACTCTCTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCTCTACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R2808-AGACACTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACACTCACGTCTCGTGGGCTCGG</t>
+    <t>R2808-AGAGTGAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGTGAACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R2809-GGTGATCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTGATCTTCGTCTCGTGGGCTCGG</t>
+    <t>R2809-ACGTACATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTACATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R2810-CATGGAGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGGAGCTAGTCTCGTGGGCTCGG</t>
+    <t>R2810-ATGTCCTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTCCTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R2811-CTAGAAGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGAAGACAGTCTCGTGGGCTCGG</t>
+    <t>R2811-TGTTGGTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTGGTAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R2812-TACGTAGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGTAGTGAGTCTCGTGGGCTCGG</t>
+    <t>R2812-TCAGTGTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGTGTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R2813-TAGCAGTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCAGTGTAGTCTCGTGGGCTCGG</t>
+    <t>R2813-GTACTAGCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACTAGCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R2814-TACTGTGTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTGTGTCCGTCTCGTGGGCTCGG</t>
+    <t>R2814-CACTGACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTGACGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R2815-ACACGAACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACGAACGTGTCTCGTGGGCTCGG</t>
+    <t>R2815-TACACTCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACTCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R2816-AAGGAACACC</t>
+    <t>R2816-AAGTGGTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTGGTAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R2817-ACACTGTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACTGTTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R2818-TTGCACTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCACTCGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R2819-GCTTGAGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTGAGCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R2820-TCATCGTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATCGTGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R2821-TGACTACCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACTACCAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R2822-TGAAGATGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAAGATGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R2823-GGTTGTCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTTGTCTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R2824-CAACCATCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACCATCTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R2825-TCCAACTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAACTGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R2826-TACAGAGTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAGAGTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R2827-TTGAGACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAGACCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R2828-GAGAACAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAACAAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R2829-GTAGATGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGATGCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R2830-CTTGCATGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGCATGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R2831-AGTTGTCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTGTCCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R2832-ACTTCTGTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTCTGTGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R2833-ATCGACACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGACACACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R2834-ATCCAAGGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCAAGGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R2835-TCCTCTGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTCTGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R2836-TAGATGGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGATGGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R2837-AGTGGTAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGGTAGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R2838-AGTACCTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTACCTAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R2839-CAACCTTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACCTTCCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R2840-ATCCTCATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTCATCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R2841-AACACAGGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACAGGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R2842-AGGACTCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGACTCAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R2843-TTGATGTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGATGTGGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R2844-GCATCAACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATCAACACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R2845-TGAGAGACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGAGACCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R2846-GCTCTGAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTCTGAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R2847-TGGTCCTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTCCTTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R2848-TGAGTGTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGTGTCGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R2849-GTGTGAGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTGAGGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R2850-GATCTTCTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCTTCTCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R2851-AACCAGCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCAGCTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R2852-ACCACTAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCACTAGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R2853-GGTTCAACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTTCAACTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R2854-TTGTCCAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTCCAACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R2855-AGACTACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTACGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R2856-AGAGGAACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGGAACAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R2857-CAACGTTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACGTTGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R2858-CAACAACTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACAACTGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R2859-ATCAGTGCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAGTGCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R2860-TGAGTGCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGTGCTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R2861-CAGATGTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGATGTCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R2862-CTCTTGCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTTGCTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R2863-CTCTCAACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTCAACTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R2864-AAGGAACACC</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATAAGGAACACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R2817-ACAGACGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGACGTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R2818-AAGGATGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGATGCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R2819-CAGTCAACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTCAACTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R2820-TACGAAGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGAAGCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R2821-TCCTTGACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTTGACAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R2822-GGTAGAACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTAGAACTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R2823-TTGACTACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGACTACGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R2824-CTACGACACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACGACACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R2825-ACAGTCATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTCATGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R2826-AGTGACTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGACTTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R2827-ACTGGTCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGGTCTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R2828-TAGTGTCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTGTCCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R2829-TCTACACACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTACACACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R2830-AAGGTCTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGTCTTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R2831-AACGTTCGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTTCGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R2832-AACAAGCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAAGCACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R2833-TAGATCCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGATCCAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R2834-TACACCAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACCAGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R2835-CTCGATCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCGATCATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R2836-TACGACCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGACCATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R2837-ACCATCTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCATCTTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R2838-ACACAGTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACAGTGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R2839-ATGTCACTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTCACTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R2840-GCATCACGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATCACGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R2841-TACAGACCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAGACCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R2842-AAGCAGGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCAGGATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R2843-ATCGTTCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGTTCTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R2844-CTCGAGATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCGAGATCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R2845-AAGAGAGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGAGTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R2846-TCAGTTCTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGTTCTGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R2847-ACGATGGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGATGGTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R2848-TGAGTTCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGTTCATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R2849-TCAGAGAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGAGAACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R2850-ACCATGTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCATGTAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R2851-ATGGTGAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGTGAGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R2852-TCTCACAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCACAACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R2853-AAGACTGTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACTGTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R2854-ACCTACACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTACACCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R2855-ATGTCTCACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTCTCACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R2856-GTTGTTGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGTTGACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R2857-CTTGAACTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGAACTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R2858-TGTTCTGCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTCTGCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R2859-AACAACACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAACACAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R2860-GGAGAAGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAGAAGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R2861-TACAGATCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAGATCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R2862-CAGGATGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGGATGTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R2863-GCTTCCATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTCCATGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R2864-TGTGTGACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGTGACTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R2865-GAGTGGTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTGGTGAAGTCTCGTGGGCTCGG</t>
+    <t>R2865-TACGACGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGACGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R2866-AGCATGCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCATGCTAGGTCTCGTGGGCTCGG</t>
+    <t>R2866-AACGAACCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGAACCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R2867-GATGTGAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGTGAACTGTCTCGTGGGCTCGG</t>
+    <t>R2867-CTACCAAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACCAAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R2868-CCAGTGTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCAGTGTCTAGTCTCGTGGGCTCGG</t>
+    <t>R2868-ATCCTAGCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTAGCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R2869-ACATCCACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATCCACTGGTCTCGTGGGCTCGG</t>
+    <t>R2869-AGCATGAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCATGAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R2870-ACTCACTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCACTGTGGTCTCGTGGGCTCGG</t>
+    <t>R2870-ACTCCACATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCCACATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R2871-GGAGTGTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAGTGTCAAGTCTCGTGGGCTCGG</t>
+    <t>R2871-GAGAACTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAACTGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R2872-CATGGTGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGGTGGTTGTCTCGTGGGCTCGG</t>
+    <t>R2872-GTCACTCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCACTCTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R2873-CCTGACAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTGACAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2873-CTTCCACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCCACGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R2874-GCATGGTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATGGTACAGTCTCGTGGGCTCGG</t>
+    <t>R2874-CCAAGCTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCAAGCTTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R2875-TTCCAAGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCAAGCATGTCTCGTGGGCTCGG</t>
+    <t>R2875-TCAGTTCCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGTTCCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R2876-GTAGACAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGACAACGGTCTCGTGGGCTCGG</t>
+    <t>R2876-CACCACTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACCACTTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R2877-GCTTCATGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTCATGGTGTCTCGTGGGCTCGG</t>
+    <t>R2877-CTAGACACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGACACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R2878-GACATCTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACATCTGTAGTCTCGTGGGCTCGG</t>
+    <t>R2878-AGAGTCTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGTCTGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R2879-TTGCTGTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCTGTTCCGTCTCGTGGGCTCGG</t>
+    <t>R2879-TCAGAGACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGAGACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R2880-ACCATGTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCATGTCCTGTCTCGTGGGCTCGG</t>
+    <t>R2880-ACTCATCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCATCAGAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
